--- a/data/main-data/save.xlsx
+++ b/data/main-data/save.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +373,81 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
